--- a/2017.xlsx
+++ b/2017.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaciez/Documents/GitHub/CAFEStandardsCostReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C26A67-382C-004A-999A-03C915FBB54D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDE48C-D2AA-AD4C-83F7-CAF2DB567042}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="24240" windowHeight="12500" activeTab="2" xr2:uid="{28DD0F0E-F380-7B4C-AA64-CD110F4BFEAD}"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="24240" windowHeight="12500" xr2:uid="{28DD0F0E-F380-7B4C-AA64-CD110F4BFEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="4Cyl" sheetId="1" r:id="rId1"/>
     <sheet name="6Cyl" sheetId="2" r:id="rId2"/>
     <sheet name="8Cyl" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEDBEDA-7B9D-C846-90A6-0FD03DC56201}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1625,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA170E36-075B-8247-9E55-EC9FF950B2A6}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
